--- a/CountryData/countryData.xlsx
+++ b/CountryData/countryData.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="217">
   <si>
     <t>country</t>
   </si>
@@ -671,6 +671,15 @@
   </si>
   <si>
     <t>Ники</t>
+  </si>
+  <si>
+    <t>countryInformation</t>
+  </si>
+  <si>
+    <t>countryURL</t>
+  </si>
+  <si>
+    <t>flagURL</t>
   </si>
 </sst>
 </file>
@@ -1040,25 +1049,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J45"/>
+  <dimension ref="A1:M45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.44140625" customWidth="1"/>
-    <col min="2" max="2" width="14.21875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="15.44140625" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" style="1" customWidth="1"/>
     <col min="3" max="3" width="15.21875" customWidth="1"/>
-    <col min="4" max="4" width="23.5546875" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" customWidth="1"/>
     <col min="5" max="5" width="11"/>
     <col min="7" max="7" width="11.109375" customWidth="1"/>
     <col min="8" max="8" width="8.33203125"/>
     <col min="9" max="9" width="10"/>
     <col min="10" max="10" width="10.6640625" customWidth="1"/>
-    <col min="11" max="1025" width="8.5546875"/>
+    <col min="11" max="11" width="8.5546875"/>
+    <col min="12" max="12" width="13.77734375" customWidth="1"/>
+    <col min="13" max="13" width="40.109375" customWidth="1"/>
+    <col min="14" max="1025" width="8.5546875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1089,8 +1101,17 @@
       <c r="J1" s="6" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="K1" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>25</v>
       </c>
@@ -1122,7 +1143,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>50</v>
       </c>
@@ -1154,7 +1175,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>122</v>
       </c>
@@ -1186,7 +1207,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>152</v>
       </c>
@@ -1218,7 +1239,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>157</v>
       </c>
@@ -1250,7 +1271,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>162</v>
       </c>
@@ -1282,7 +1303,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>167</v>
       </c>
@@ -1314,7 +1335,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>194</v>
       </c>
@@ -1346,7 +1367,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>65</v>
       </c>
@@ -1378,7 +1399,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>70</v>
       </c>
@@ -1410,7 +1431,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="12" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>74</v>
       </c>
@@ -1442,7 +1463,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="13" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>89</v>
       </c>
@@ -1474,7 +1495,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="14" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>94</v>
       </c>
@@ -1506,7 +1527,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="15" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>172</v>
       </c>
@@ -1538,7 +1559,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="16" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>176</v>
       </c>
